--- a/POMdemo/src/test/resources/_data/Events.xlsx
+++ b/POMdemo/src/test/resources/_data/Events.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java-lotus\seleniumTestNG\src\test\resources\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java-lotus\POMdemo\src\test\resources\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="create event" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
